--- a/biology/Botanique/Cladophora_glomerata/Cladophora_glomerata.xlsx
+++ b/biology/Botanique/Cladophora_glomerata/Cladophora_glomerata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cladophora glomerata est une espèce d'algues vertes d'eau douce de la famille des Cladophoraceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a une répartition cosmopolite[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a une répartition cosmopolite.
 </t>
         </is>
       </c>
@@ -568,11 +584,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct Cladophora glomerata a été publié en 1843 par le phycologue prussien Friedrich Traugott Kützing[2]. L'espèce a été initialement décrite en 1753 dans le genre Conferva par le naturaliste suédois Carl von Linné, dans son ouvrage Species Plantarum[3]. L'épithète spécifique glomerata signifie « regroupé en masse ronde ». Il s'agirait en réalité d'un complexe d'espèces[4].
-Synonymes
-Cladophora glomerata a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct Cladophora glomerata a été publié en 1843 par le phycologue prussien Friedrich Traugott Kützing. L'espèce a été initialement décrite en 1753 dans le genre Conferva par le naturaliste suédois Carl von Linné, dans son ouvrage Species Plantarum. L'épithète spécifique glomerata signifie « regroupé en masse ronde ». Il s'agirait en réalité d'un complexe d'espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cladophora_glomerata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cladophora_glomerata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cladophora glomerata a pour synonymes :
 (homotypiques)
 Conferva glomerata Linnaeus 1753 (basionyme)
 Polysperma glomeratum (Linnaeus) Vaucher 1803
@@ -639,9 +692,43 @@
 Cladophora tildeniae Brand 1902
 Cladophora fracta f. tolediana Budde 1929
 Cladophora hunanensis C.C.Jao 1940
-Cladophora declinata f. kwangsiensis C.C.Jao 1947
-Variétés et formes
-Le World Register of Marine Species                               (14 avril 2024)[5] reconnaît plusieurs formes et variétés :
+Cladophora declinata f. kwangsiensis C.C.Jao 1947</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cladophora_glomerata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cladophora_glomerata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés et formes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le World Register of Marine Species                               (14 avril 2024) reconnaît plusieurs formes et variétés :
 Cladophora glomerata f. boreali-americana F.Brand
 Cladophora glomerata f. cartilaginea (Kützing) Rabenhorst
 Cladophora glomerata f. declinata (Kützing) Rabenhorst
